--- a/data/georgia_census/samegrelo/zugdidi/healthcare_staff.xlsx
+++ b/data/georgia_census/samegrelo/zugdidi/healthcare_staff.xlsx
@@ -1313,13 +1313,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABF684D0-436F-467A-AE91-DC8B75B9A00F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F18834ED-CED8-4776-885A-CCB15A9B6827}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AF475B8-C466-4054-B61C-64487AF32094}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14D9A7B3-9863-4197-848E-418C6404C902}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09BA12BC-C6D3-47F6-A419-D1CFA3796462}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32CD58AF-FF86-4E35-B82C-5419B7BB2F52}"/>
 </file>